--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>5.235050811971219e-31</v>
+        <v>8.584987080947355e-34</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>5.259714059052351e-31</v>
+        <v>2.208820955599281e-33</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>6.003167167314912e-31</v>
+        <v>3.225374059502051e-33</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>7.544918907827517e-31</v>
+        <v>3.177735792859756e-33</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>9.030006656480549e-31</v>
+        <v>3.200492341981297e-33</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>1.659649113313742e-30</v>
+        <v>3.33791242799603e-33</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.450666255980323e-30</v>
+        <v>2.812129505109106e-33</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>6.271007415520664e-30</v>
+        <v>2.914182253935627e-33</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>9.451654283170087e-30</v>
+        <v>2.139849577606003e-33</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>9.079793231822389e-30</v>
+        <v>2.502069031707893e-33</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>6.54782452808991e-30</v>
+        <v>1.811687763552243e-33</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>3.032329901079666e-30</v>
+        <v>1.500748179907591e-33</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>2.256738359106836e-30</v>
+        <v>6.476856744418383e-35</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>2.786783248978504e-30</v>
+        <v>3.71957449401573e-35</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.19464606916462e-30</v>
+        <v>3.743297102573208e-35</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>8.315950994280812e-31</v>
+        <v>3.147422208411663e-35</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>4.487761415334887e-31</v>
+        <v>3.176397154329416e-35</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>2.043288236124923e-31</v>
+        <v>4.028603551211712e-35</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.525534075258835e-31</v>
+        <v>3.26125951821292e-35</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.479386388206187e-31</v>
+        <v>3.73423858219353e-35</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.651577574802474e-31</v>
+        <v>7.01058800570849e-35</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>1.960978244609365e-31</v>
+        <v>7.733396608425998e-35</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>1.789121247936824e-31</v>
+        <v>9.966004873727494e-35</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>3.532643052562767e-31</v>
+        <v>1.057819034106826e-34</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>5.006930830812778e-31</v>
+        <v>8.988605224896564e-35</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.064516360839379e-30</v>
+        <v>1.060909306469224e-34</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>2.327683026052607e-30</v>
+        <v>9.388893107582841e-35</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>1.999285229627615e-30</v>
+        <v>9.680366353793465e-35</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>9.492408120359084e-31</v>
+        <v>9.324737063372505e-35</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>4.313656538132754e-31</v>
+        <v>9.03481566004549e-35</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>1.881132303207599e-31</v>
+        <v>8.287745127946826e-35</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>1.700419617905988e-31</v>
+        <v>7.437025320321369e-35</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>1.037976719936926e-31</v>
+        <v>8.610353669787933e-35</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>8.057579211639496e-32</v>
+        <v>7.311243649558208e-35</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>4.816546539364522e-32</v>
+        <v>6.893356538378924e-35</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>5.12321734141511e-32</v>
+        <v>4.338094986600881e-35</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>9.56202527660773e-32</v>
+        <v>4.30124452075403e-35</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>4.872227537367663e-32</v>
+        <v>3.436797942117515e-35</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>1.895023403330315e-32</v>
+        <v>4.134680316191192e-35</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>1.427273590662821e-32</v>
+        <v>6.124587066766125e-35</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>9.870211815496758e-33</v>
+        <v>6.062410143721489e-35</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>9.574702303766068e-33</v>
+        <v>5.492119861140883e-35</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.308530555072137e-32</v>
+        <v>4.582732431265285e-35</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>2.821578761077736e-32</v>
+        <v>4.471301475310704e-35</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>3.012259687613663e-32</v>
+        <v>3.993624323673376e-35</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>3.009071648442234e-32</v>
+        <v>1.934312225134462e-35</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>2.911117787616171e-32</v>
+        <v>1.852988709223113e-35</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>2.415521666157478e-32</v>
+        <v>2.017541847077095e-35</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>1.843394410492797e-32</v>
+        <v>2.475052615009441e-35</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>1.20869977819855e-32</v>
+        <v>2.893234716976977e-35</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>9.58710591962001e-33</v>
+        <v>5.194694141181458e-35</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>8.753666692579742e-33</v>
+        <v>7.492638793370653e-35</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>8.45840718794548e-33</v>
+        <v>1.894473089800444e-34</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>7.690906525942753e-33</v>
+        <v>2.820831122658312e-34</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>6.760258409402454e-33</v>
+        <v>2.647365566459351e-34</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>5.96271203023402e-33</v>
+        <v>1.873171609622077e-34</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>6.36570266530083e-33</v>
+        <v>8.508748981847241e-35</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>7.501317707351823e-33</v>
+        <v>6.301580524868918e-35</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>9.977815037947429e-33</v>
+        <v>7.74704030651194e-35</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>1.142253315169489e-32</v>
+        <v>3.304138431250238e-35</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>1.325851785938324e-32</v>
+        <v>2.284961541046754e-35</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>1.514334538583454e-32</v>
+        <v>1.218622820234737e-35</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>1.547508007397067e-32</v>
+        <v>5.415343851984283e-36</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>1.751664443202428e-32</v>
+        <v>4.024296735169365e-36</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.875832007169988e-32</v>
+        <v>3.875822244451257e-36</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.805070299744266e-32</v>
+        <v>4.276057010093559e-36</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.850012284596675e-32</v>
+        <v>5.015269014884234e-36</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.760380426605558e-32</v>
+        <v>4.530725839003819e-36</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>1.679022776136752e-32</v>
+        <v>8.826946725861168e-36</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.580466100962082e-32</v>
+        <v>1.235802279702293e-35</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.536929154293322e-32</v>
+        <v>2.568542335386232e-35</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>1.404211742468571e-32</v>
+        <v>5.479878628478062e-35</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.333270705964692e-32</v>
+        <v>4.597029591965091e-35</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>9.527456227999161e-33</v>
+        <v>2.131993450459439e-35</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>8.199720139236466e-33</v>
+        <v>9.460356627468442e-36</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>6.465204670098511e-33</v>
+        <v>4.027074127631882e-36</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>4.374533818431815e-33</v>
+        <v>3.55728482926098e-36</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>3.709115732397624e-33</v>
+        <v>2.119371077631484e-36</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>2.979871085462673e-33</v>
+        <v>1.607779625220153e-36</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>2.724993216421162e-33</v>
+        <v>9.492330918673471e-37</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.727297449434046e-33</v>
+        <v>9.982701543118453e-37</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>2.626291082131474e-33</v>
+        <v>1.819529729197698e-36</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>2.378628576397483e-33</v>
+        <v>8.838529533228522e-37</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>2.296765765154313e-33</v>
+        <v>3.356913161633961e-37</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>2.250085328641398e-33</v>
+        <v>2.470376990396142e-37</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>2.422410669737823e-33</v>
+        <v>1.628912423082487e-37</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>2.528595122168504e-33</v>
+        <v>1.507040966579695e-37</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>2.556737173112371e-33</v>
+        <v>1.964226518176995e-37</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>2.463616147441477e-33</v>
+        <v>4.183757766703767e-37</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>2.323148401843033e-33</v>
+        <v>4.427486336529309e-37</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>2.05351872028766e-33</v>
+        <v>4.307318336615062e-37</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.646179672745342e-33</v>
+        <v>4.118193909788358e-37</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>8.958534294978518e-34</v>
+        <v>3.375555054499014e-37</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>7.044053223381104e-34</v>
+        <v>2.516044179262893e-37</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>5.280595060416838e-34</v>
+        <v>1.611863723712456e-37</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>3.562103735528104e-34</v>
+        <v>1.248211299407693e-37</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>3.090290602131073e-34</v>
+        <v>1.133959475218213e-37</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.886004714135983e-34</v>
+        <v>1.087662232085439e-37</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>2.823530881932741e-34</v>
+        <v>9.778026069950426e-38</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>2.608993205409355e-34</v>
+        <v>8.396841380197727e-38</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.555104141562227e-34</v>
+        <v>7.06090334695174e-38</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>2.551895103285789e-34</v>
+        <v>7.253062541564814e-38</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>2.532780948442472e-34</v>
+        <v>8.081909489840392e-38</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>2.420648536117186e-34</v>
+        <v>1.049772619924921e-37</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.311993050665024e-34</v>
+        <v>1.173004473580135e-37</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>2.250174717942502e-34</v>
+        <v>1.330182449979979e-37</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.967261815261079e-34</v>
+        <v>1.497148279984972e-37</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.966302470726076e-34</v>
+        <v>1.515361654369798e-37</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.958725847250077e-34</v>
+        <v>1.688126817575925e-37</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>1.870307467383325e-34</v>
+        <v>1.76614798865597e-37</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.540410203174224e-34</v>
+        <v>1.685400289412509e-37</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>1.248817450497778e-34</v>
+        <v>1.700988694460939e-37</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.111124221330534e-34</v>
+        <v>1.599086918034379e-37</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>1.062411025916032e-34</v>
+        <v>1.514805480545902e-37</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>1.247395797896778e-34</v>
+        <v>1.41538015327239e-37</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>2.01591649899963e-34</v>
+        <v>1.369328114281942e-37</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.383907720039542e-34</v>
+        <v>1.24292398825266e-37</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>2.42825433288286e-34</v>
+        <v>1.175022361415955e-37</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>2.372303724230247e-34</v>
+        <v>8.198348018580429e-38</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>2.349392620565941e-34</v>
+        <v>6.966742221423417e-38</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>2.334139105156886e-34</v>
+        <v>5.43346422346324e-38</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>2.0743021012167e-34</v>
+        <v>3.590551514181345e-38</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.842523791814213e-34</v>
+        <v>3.006016690996534e-38</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>9.969823213287451e-35</v>
+        <v>2.387398412812489e-38</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>4.927703030594285e-35</v>
+        <v>2.168238237524813e-38</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>3.386088906343953e-35</v>
+        <v>2.169454406875539e-38</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>2.961096757144434e-35</v>
+        <v>2.079423063746856e-38</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>3.643473341490952e-35</v>
+        <v>1.861226394260497e-38</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>3.872268377320212e-35</v>
+        <v>1.784306990967752e-38</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>5.331190796453844e-35</v>
+        <v>1.738659981785019e-38</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>6.19337322273227e-35</v>
+        <v>1.859962134120891e-38</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>6.0085636207097e-35</v>
+        <v>1.927184366333678e-38</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>5.400089819660641e-35</v>
+        <v>1.935694727762611e-38</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>4.550854212999983e-35</v>
+        <v>1.850789465192302e-38</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>4.5029079874441e-35</v>
+        <v>1.733675226554186e-38</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>3.774947909789369e-35</v>
+        <v>1.513756805382889e-38</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>2.993712200880809e-35</v>
+        <v>1.199555941882666e-38</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>2.550266713752848e-35</v>
+        <v>6.374454269662867e-39</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>2.413601341585576e-35</v>
+        <v>4.952788364801244e-39</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>2.239554281574019e-35</v>
+        <v>3.672862902319951e-39</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>2.15425580647224e-35</v>
+        <v>2.421201655598493e-39</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>1.948491311405379e-35</v>
+        <v>2.071819986664102e-39</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>2.019402207309924e-35</v>
+        <v>1.91782648137746e-39</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.185106497693847e-35</v>
+        <v>1.862836854336305e-39</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>2.326562702466136e-35</v>
+        <v>1.71262457363619e-39</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>2.451847155489456e-35</v>
+        <v>1.672881832890493e-39</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>2.658814928508162e-35</v>
+        <v>1.669038873062676e-39</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>2.79630154268193e-35</v>
+        <v>1.65543820926304e-39</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>2.665294774147061e-35</v>
+        <v>1.574029403540297e-39</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>2.526711959421403e-35</v>
+        <v>1.496335614156459e-39</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>2.112468806312601e-35</v>
+        <v>1.449300150559595e-39</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>2.069840130180215e-35</v>
+        <v>1.261445824802879e-39</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>1.738410774299321e-35</v>
+        <v>1.257070009686e-39</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.636912932132621e-35</v>
+        <v>1.250120209523415e-39</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>1.588214913399932e-35</v>
+        <v>1.184976271108706e-39</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>1.929321521690948e-35</v>
+        <v>9.645532252798325e-40</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>1.651358851559858e-35</v>
+        <v>7.728080525719487e-40</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>1.648169095280769e-35</v>
+        <v>6.798994293341673e-40</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>1.455653935123857e-35</v>
+        <v>6.479068829060711e-40</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>1.327828668891842e-35</v>
+        <v>7.537715372510343e-40</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>1.227395797285389e-35</v>
+        <v>1.203615870177248e-39</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>1.120498888111021e-35</v>
+        <v>1.414011050950951e-39</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.008179956994906e-35</v>
+        <v>1.429802526349873e-39</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>9.991740627012255e-36</v>
+        <v>1.386136392637457e-39</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>4.788455500984558e-36</v>
+        <v>1.366191175739247e-39</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1.842735711593077e-36</v>
+        <v>1.354203383440205e-39</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.098800943336195e-36</v>
+        <v>1.186286991229024e-39</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>1.541826836085003e-36</v>
+        <v>1.04792907046204e-39</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>9.520705361154655e-37</v>
+        <v>5.528535113972011e-40</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>7.520114019123761e-37</v>
+        <v>2.607301666845025e-40</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>6.099896784601951e-37</v>
+        <v>1.707880228514465e-40</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>6.02410144317548e-37</v>
+        <v>1.424359367610393e-40</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>7.319084749002143e-37</v>
+        <v>1.713689854039267e-40</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>1.182130133903873e-36</v>
+        <v>1.805995605362366e-40</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>1.145956064074903e-36</v>
+        <v>2.445097413422401e-40</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>8.626829632016583e-37</v>
+        <v>2.775228706627107e-40</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>7.2984222183859e-37</v>
+        <v>2.660058645763756e-40</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.362845298243737e-40</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.96788538648741e-40</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.946875473825095e-40</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.61370543699893e-40</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.264244819504902e-40</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.063757173885214e-40</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.000138485638198e-40</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>9.17669226034106e-41</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>8.784380901930172e-41</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>7.895390491069571e-41</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>8.070023231714688e-41</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.636482731603775e-41</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>9.094978994153542e-41</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>9.465285716010694e-41</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.014645357205063e-40</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.054037898181461e-40</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.004584755966197e-40</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>9.421110082943476e-41</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>7.778764705036148e-41</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>7.618360303922381e-41</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.337944023955167e-41</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.949253804063532e-41</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.767886605342183e-41</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6.949272271426847e-41</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.926254409132156e-41</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.854816697908119e-41</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.147336252475719e-41</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.672458559136082e-41</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.298923624270866e-41</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.904196745130682e-41</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.496305817127858e-41</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.451873271854808e-41</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.634205574305086e-41</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>6.210515926383276e-42</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.678492477086475e-42</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.156488048056314e-42</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>3.180183252674048e-42</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.499454747843164e-42</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.008759226271118e-42</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.968712733625355e-42</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.33405476662192e-42</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.67564603013296e-42</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.477379048943388e-42</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.550105601463938e-42</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.137824023306515e-42</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>8.584987080947355e-34</v>
+        <v>5.235050811971219e-31</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>2.208820955599281e-33</v>
+        <v>5.259714059052351e-31</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>3.225374059502051e-33</v>
+        <v>6.003167167314912e-31</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>3.177735792859756e-33</v>
+        <v>7.544918907827517e-31</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>3.200492341981297e-33</v>
+        <v>9.030006656480549e-31</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>3.33791242799603e-33</v>
+        <v>1.659649113313742e-30</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>2.812129505109106e-33</v>
+        <v>2.450666255980323e-30</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>2.914182253935627e-33</v>
+        <v>6.271007415520664e-30</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>2.139849577606003e-33</v>
+        <v>9.451654283170087e-30</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>2.502069031707893e-33</v>
+        <v>9.079793231822389e-30</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>1.811687763552243e-33</v>
+        <v>6.54782452808991e-30</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>1.500748179907591e-33</v>
+        <v>3.032329901079666e-30</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>6.476856744418383e-35</v>
+        <v>2.256738359106836e-30</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>3.71957449401573e-35</v>
+        <v>2.786783248978504e-30</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>3.743297102573208e-35</v>
+        <v>1.19464606916462e-30</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>3.147422208411663e-35</v>
+        <v>8.315950994280812e-31</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>3.176397154329416e-35</v>
+        <v>4.487761415334887e-31</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>4.028603551211712e-35</v>
+        <v>2.043288236124923e-31</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>3.26125951821292e-35</v>
+        <v>1.525534075258835e-31</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>3.73423858219353e-35</v>
+        <v>1.479386388206187e-31</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>7.01058800570849e-35</v>
+        <v>1.651577574802474e-31</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>7.733396608425998e-35</v>
+        <v>1.960978244609365e-31</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>9.966004873727494e-35</v>
+        <v>1.789121247936824e-31</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>1.057819034106826e-34</v>
+        <v>3.532643052562767e-31</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>8.988605224896564e-35</v>
+        <v>5.006930830812778e-31</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>1.060909306469224e-34</v>
+        <v>1.064516360839379e-30</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>9.388893107582841e-35</v>
+        <v>2.327683026052607e-30</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>9.680366353793465e-35</v>
+        <v>1.999285229627615e-30</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>9.324737063372505e-35</v>
+        <v>9.492408120359084e-31</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>9.03481566004549e-35</v>
+        <v>4.313656538132754e-31</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>8.287745127946826e-35</v>
+        <v>1.881132303207599e-31</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>7.437025320321369e-35</v>
+        <v>1.700419617905988e-31</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>8.610353669787933e-35</v>
+        <v>1.037976719936926e-31</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>7.311243649558208e-35</v>
+        <v>8.057579211639496e-32</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>6.893356538378924e-35</v>
+        <v>4.816546539364522e-32</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>4.338094986600881e-35</v>
+        <v>5.12321734141511e-32</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>4.30124452075403e-35</v>
+        <v>9.56202527660773e-32</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>3.436797942117515e-35</v>
+        <v>4.872227537367663e-32</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>4.134680316191192e-35</v>
+        <v>1.895023403330315e-32</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>6.124587066766125e-35</v>
+        <v>1.427273590662821e-32</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>6.062410143721489e-35</v>
+        <v>9.870211815496758e-33</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>5.492119861140883e-35</v>
+        <v>9.574702303766068e-33</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>4.582732431265285e-35</v>
+        <v>1.308530555072137e-32</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>4.471301475310704e-35</v>
+        <v>2.821578761077736e-32</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>3.993624323673376e-35</v>
+        <v>3.012259687613663e-32</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>1.934312225134462e-35</v>
+        <v>3.009071648442234e-32</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.852988709223113e-35</v>
+        <v>2.911117787616171e-32</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>2.017541847077095e-35</v>
+        <v>2.415521666157478e-32</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>2.475052615009441e-35</v>
+        <v>1.843394410492797e-32</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>2.893234716976977e-35</v>
+        <v>1.20869977819855e-32</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>5.194694141181458e-35</v>
+        <v>9.58710591962001e-33</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>7.492638793370653e-35</v>
+        <v>8.753666692579742e-33</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>1.894473089800444e-34</v>
+        <v>8.45840718794548e-33</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>2.820831122658312e-34</v>
+        <v>7.690906525942753e-33</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>2.647365566459351e-34</v>
+        <v>6.760258409402454e-33</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>1.873171609622077e-34</v>
+        <v>5.96271203023402e-33</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>8.508748981847241e-35</v>
+        <v>6.36570266530083e-33</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>6.301580524868918e-35</v>
+        <v>7.501317707351823e-33</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>7.74704030651194e-35</v>
+        <v>9.977815037947429e-33</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>3.304138431250238e-35</v>
+        <v>1.142253315169489e-32</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>2.284961541046754e-35</v>
+        <v>1.325851785938324e-32</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.218622820234737e-35</v>
+        <v>1.514334538583454e-32</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>5.415343851984283e-36</v>
+        <v>1.547508007397067e-32</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>4.024296735169365e-36</v>
+        <v>1.751664443202428e-32</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>3.875822244451257e-36</v>
+        <v>1.875832007169988e-32</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>4.276057010093559e-36</v>
+        <v>1.805070299744266e-32</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>5.015269014884234e-36</v>
+        <v>1.850012284596675e-32</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>4.530725839003819e-36</v>
+        <v>1.760380426605558e-32</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>8.826946725861168e-36</v>
+        <v>1.679022776136752e-32</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>1.235802279702293e-35</v>
+        <v>1.580466100962082e-32</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>2.568542335386232e-35</v>
+        <v>1.536929154293322e-32</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>5.479878628478062e-35</v>
+        <v>1.404211742468571e-32</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>4.597029591965091e-35</v>
+        <v>1.333270705964692e-32</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>2.131993450459439e-35</v>
+        <v>9.527456227999161e-33</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>9.460356627468442e-36</v>
+        <v>8.199720139236466e-33</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>4.027074127631882e-36</v>
+        <v>6.465204670098511e-33</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>3.55728482926098e-36</v>
+        <v>4.374533818431815e-33</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>2.119371077631484e-36</v>
+        <v>3.709115732397624e-33</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>1.607779625220153e-36</v>
+        <v>2.979871085462673e-33</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>9.492330918673471e-37</v>
+        <v>2.724993216421162e-33</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>9.982701543118453e-37</v>
+        <v>2.727297449434046e-33</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>1.819529729197698e-36</v>
+        <v>2.626291082131474e-33</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>8.838529533228522e-37</v>
+        <v>2.378628576397483e-33</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>3.356913161633961e-37</v>
+        <v>2.296765765154313e-33</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>2.470376990396142e-37</v>
+        <v>2.250085328641398e-33</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>1.628912423082487e-37</v>
+        <v>2.422410669737823e-33</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>1.507040966579695e-37</v>
+        <v>2.528595122168504e-33</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>1.964226518176995e-37</v>
+        <v>2.556737173112371e-33</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>4.183757766703767e-37</v>
+        <v>2.463616147441477e-33</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>4.427486336529309e-37</v>
+        <v>2.323148401843033e-33</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>4.307318336615062e-37</v>
+        <v>2.05351872028766e-33</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>4.118193909788358e-37</v>
+        <v>1.646179672745342e-33</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>3.375555054499014e-37</v>
+        <v>8.958534294978518e-34</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>2.516044179262893e-37</v>
+        <v>7.044053223381104e-34</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>1.611863723712456e-37</v>
+        <v>5.280595060416838e-34</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>1.248211299407693e-37</v>
+        <v>3.562103735528104e-34</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>1.133959475218213e-37</v>
+        <v>3.090290602131073e-34</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>1.087662232085439e-37</v>
+        <v>2.886004714135983e-34</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>9.778026069950426e-38</v>
+        <v>2.823530881932741e-34</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>8.396841380197727e-38</v>
+        <v>2.608993205409355e-34</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>7.06090334695174e-38</v>
+        <v>2.555104141562227e-34</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>7.253062541564814e-38</v>
+        <v>2.551895103285789e-34</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>8.081909489840392e-38</v>
+        <v>2.532780948442472e-34</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>1.049772619924921e-37</v>
+        <v>2.420648536117186e-34</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>1.173004473580135e-37</v>
+        <v>2.311993050665024e-34</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>1.330182449979979e-37</v>
+        <v>2.250174717942502e-34</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>1.497148279984972e-37</v>
+        <v>1.967261815261079e-34</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>1.515361654369798e-37</v>
+        <v>1.966302470726076e-34</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>1.688126817575925e-37</v>
+        <v>1.958725847250077e-34</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>1.76614798865597e-37</v>
+        <v>1.870307467383325e-34</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>1.685400289412509e-37</v>
+        <v>1.540410203174224e-34</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>1.700988694460939e-37</v>
+        <v>1.248817450497778e-34</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>1.599086918034379e-37</v>
+        <v>1.111124221330534e-34</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>1.514805480545902e-37</v>
+        <v>1.062411025916032e-34</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>1.41538015327239e-37</v>
+        <v>1.247395797896778e-34</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>1.369328114281942e-37</v>
+        <v>2.01591649899963e-34</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>1.24292398825266e-37</v>
+        <v>2.383907720039542e-34</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>1.175022361415955e-37</v>
+        <v>2.42825433288286e-34</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>8.198348018580429e-38</v>
+        <v>2.372303724230247e-34</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>6.966742221423417e-38</v>
+        <v>2.349392620565941e-34</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>5.43346422346324e-38</v>
+        <v>2.334139105156886e-34</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>3.590551514181345e-38</v>
+        <v>2.0743021012167e-34</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>3.006016690996534e-38</v>
+        <v>1.842523791814213e-34</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>2.387398412812489e-38</v>
+        <v>9.969823213287451e-35</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>2.168238237524813e-38</v>
+        <v>4.927703030594285e-35</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>2.169454406875539e-38</v>
+        <v>3.386088906343953e-35</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>2.079423063746856e-38</v>
+        <v>2.961096757144434e-35</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.861226394260497e-38</v>
+        <v>3.643473341490952e-35</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.784306990967752e-38</v>
+        <v>3.872268377320212e-35</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.738659981785019e-38</v>
+        <v>5.331190796453844e-35</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.859962134120891e-38</v>
+        <v>6.19337322273227e-35</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>1.927184366333678e-38</v>
+        <v>6.0085636207097e-35</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>1.935694727762611e-38</v>
+        <v>5.400089819660641e-35</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>1.850789465192302e-38</v>
+        <v>4.550854212999983e-35</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>1.733675226554186e-38</v>
+        <v>4.5029079874441e-35</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.513756805382889e-38</v>
+        <v>3.774947909789369e-35</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>1.199555941882666e-38</v>
+        <v>2.993712200880809e-35</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>6.374454269662867e-39</v>
+        <v>2.550266713752848e-35</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>4.952788364801244e-39</v>
+        <v>2.413601341585576e-35</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>3.672862902319951e-39</v>
+        <v>2.239554281574019e-35</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>2.421201655598493e-39</v>
+        <v>2.15425580647224e-35</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>2.071819986664102e-39</v>
+        <v>1.948491311405379e-35</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>1.91782648137746e-39</v>
+        <v>2.019402207309924e-35</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>1.862836854336305e-39</v>
+        <v>2.185106497693847e-35</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>1.71262457363619e-39</v>
+        <v>2.326562702466136e-35</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>1.672881832890493e-39</v>
+        <v>2.451847155489456e-35</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>1.669038873062676e-39</v>
+        <v>2.658814928508162e-35</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>1.65543820926304e-39</v>
+        <v>2.79630154268193e-35</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>1.574029403540297e-39</v>
+        <v>2.665294774147061e-35</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>1.496335614156459e-39</v>
+        <v>2.526711959421403e-35</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>1.449300150559595e-39</v>
+        <v>2.112468806312601e-35</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.261445824802879e-39</v>
+        <v>2.069840130180215e-35</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.257070009686e-39</v>
+        <v>1.738410774299321e-35</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.250120209523415e-39</v>
+        <v>1.636912932132621e-35</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.184976271108706e-39</v>
+        <v>1.588214913399932e-35</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>9.645532252798325e-40</v>
+        <v>1.929321521690948e-35</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>7.728080525719487e-40</v>
+        <v>1.651358851559858e-35</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>6.798994293341673e-40</v>
+        <v>1.648169095280769e-35</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>6.479068829060711e-40</v>
+        <v>1.455653935123857e-35</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>7.537715372510343e-40</v>
+        <v>1.327828668891842e-35</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>1.203615870177248e-39</v>
+        <v>1.227395797285389e-35</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>1.414011050950951e-39</v>
+        <v>1.120498888111021e-35</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>1.429802526349873e-39</v>
+        <v>1.008179956994906e-35</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>1.386136392637457e-39</v>
+        <v>9.991740627012255e-36</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>1.366191175739247e-39</v>
+        <v>4.788455500984558e-36</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>1.354203383440205e-39</v>
+        <v>1.842735711593077e-36</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>1.186286991229024e-39</v>
+        <v>1.098800943336195e-36</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>1.04792907046204e-39</v>
+        <v>1.541826836085003e-36</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>5.528535113972011e-40</v>
+        <v>9.520705361154655e-37</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>2.607301666845025e-40</v>
+        <v>7.520114019123761e-37</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.707880228514465e-40</v>
+        <v>6.099896784601951e-37</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.424359367610393e-40</v>
+        <v>6.02410144317548e-37</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>1.713689854039267e-40</v>
+        <v>7.319084749002143e-37</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>1.805995605362366e-40</v>
+        <v>1.182130133903873e-36</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>2.445097413422401e-40</v>
+        <v>1.145956064074903e-36</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>2.775228706627107e-40</v>
+        <v>8.626829632016583e-37</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>2.660058645763756e-40</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>2.362845298243737e-40</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.96788538648741e-40</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.946875473825095e-40</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.61370543699893e-40</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.264244819504902e-40</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.063757173885214e-40</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.000138485638198e-40</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>9.17669226034106e-41</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>8.784380901930172e-41</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>7.895390491069571e-41</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>8.070023231714688e-41</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>8.636482731603775e-41</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>9.094978994153542e-41</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>9.465285716010694e-41</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.014645357205063e-40</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.054037898181461e-40</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.004584755966197e-40</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>9.421110082943476e-41</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>7.778764705036148e-41</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>7.618360303922381e-41</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>6.337944023955167e-41</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>5.949253804063532e-41</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>5.767886605342183e-41</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>6.949272271426847e-41</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>5.926254409132156e-41</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>5.854816697908119e-41</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>5.147336252475719e-41</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.672458559136082e-41</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4.298923624270866e-41</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.904196745130682e-41</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.496305817127858e-41</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.451873271854808e-41</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.634205574305086e-41</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>6.210515926383276e-42</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.678492477086475e-42</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>5.156488048056314e-42</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>3.180183252674048e-42</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.499454747843164e-42</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>2.008759226271118e-42</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.968712733625355e-42</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2.33405476662192e-42</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.67564603013296e-42</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.477379048943388e-42</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.550105601463938e-42</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>2.137824023306515e-42</v>
+        <v>7.2984222183859e-37</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>5.235050811971219e-31</v>
+        <v>1.343712978771252e-15</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>5.259714059052351e-31</v>
+        <v>2.15313283141512e-15</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>6.003167167314912e-31</v>
+        <v>2.930970453481686e-15</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>7.544918907827517e-31</v>
+        <v>2.75856409787271e-15</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>9.030006656480549e-31</v>
+        <v>3.288283592103429e-15</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>1.659649113313742e-30</v>
+        <v>3.094919103975963e-15</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>2.450666255980323e-30</v>
+        <v>2.774993607805676e-15</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>6.271007415520664e-30</v>
+        <v>2.849268169499905e-15</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>9.451654283170087e-30</v>
+        <v>1.996818582115827e-15</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>9.079793231822389e-30</v>
+        <v>2.34174337082151e-15</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>6.54782452808991e-30</v>
+        <v>2.42375206642493e-15</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>3.032329901079666e-30</v>
+        <v>1.441603678031085e-15</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>2.256738359106836e-30</v>
+        <v>5.956631556056883e-17</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>2.786783248978504e-30</v>
+        <v>3.387075514366226e-17</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.19464606916462e-30</v>
+        <v>3.594346089187197e-17</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>8.315950994280812e-31</v>
+        <v>2.950354014803594e-17</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>4.487761415334887e-31</v>
+        <v>3.00785879664349e-17</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>2.043288236124923e-31</v>
+        <v>3.755778251020539e-17</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.525534075258835e-31</v>
+        <v>3.056275416107218e-17</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.479386388206187e-31</v>
+        <v>3.586247225947488e-17</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.651577574802474e-31</v>
+        <v>6.371779025943309e-17</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>1.960978244609365e-31</v>
+        <v>7.320351504253719e-17</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1.789121247936824e-31</v>
+        <v>9.924435816777384e-17</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>3.532643052562767e-31</v>
+        <v>1.020515296520375e-16</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>5.006930830812778e-31</v>
+        <v>9.316116516654225e-17</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.064516360839379e-30</v>
+        <v>9.947488441818158e-17</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>2.327683026052607e-30</v>
+        <v>9.433460216864342e-17</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>1.999285229627615e-30</v>
+        <v>9.252355067871716e-17</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>9.492408120359084e-31</v>
+        <v>8.923252933048994e-17</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>4.313656538132754e-31</v>
+        <v>8.795271214470631e-17</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>1.881132303207599e-31</v>
+        <v>7.994434075843536e-17</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>1.700419617905988e-31</v>
+        <v>7.30754647128327e-17</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>1.037976719936926e-31</v>
+        <v>8.020937540577345e-17</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>8.057579211639496e-32</v>
+        <v>6.923196062186218e-17</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>4.816546539364522e-32</v>
+        <v>6.443008047983923e-17</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>5.12321734141511e-32</v>
+        <v>4.19851787972915e-17</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>9.56202527660773e-32</v>
+        <v>4.05140554394637e-17</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>4.872227537367663e-32</v>
+        <v>3.713143776895738e-17</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>1.895023403330315e-32</v>
+        <v>3.908985334510478e-17</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>1.427273590662821e-32</v>
+        <v>5.738431683489262e-17</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>9.870211815496758e-33</v>
+        <v>5.725162777592945e-17</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>9.574702303766068e-33</v>
+        <v>5.109093700648685e-17</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.308530555072137e-32</v>
+        <v>4.282490040023534e-17</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>2.821578761077736e-32</v>
+        <v>4.154988873730367e-17</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>3.012259687613663e-32</v>
+        <v>3.73496095801006e-17</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>3.009071648442234e-32</v>
+        <v>1.793572291178365e-17</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>2.911117787616171e-32</v>
+        <v>1.732149611401612e-17</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>2.415521666157478e-32</v>
+        <v>1.876872628095474e-17</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>1.843394410492797e-32</v>
+        <v>2.317263479948317e-17</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>1.20869977819855e-32</v>
+        <v>2.704185871203462e-17</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>9.58710591962001e-33</v>
+        <v>4.835452235710588e-17</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>8.753666692579742e-33</v>
+        <v>6.974596095417234e-17</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>8.45840718794548e-33</v>
+        <v>1.769081131357148e-16</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>7.690906525942753e-33</v>
+        <v>2.631591194189735e-16</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>6.760258409402454e-33</v>
+        <v>2.466254566295331e-16</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>5.96271203023402e-33</v>
+        <v>1.745862768507824e-16</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>6.36570266530083e-33</v>
+        <v>7.948107053894012e-17</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>7.501317707351823e-33</v>
+        <v>5.89152611317496e-17</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>9.977815037947429e-33</v>
+        <v>7.228307795954134e-17</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>1.142253315169489e-32</v>
+        <v>3.07914067706398e-17</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>1.325851785938324e-32</v>
+        <v>2.12398218775588e-17</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>1.514334538583454e-32</v>
+        <v>1.130455116479663e-17</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>1.547508007397067e-32</v>
+        <v>5.052730778007041e-18</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>1.751664443202428e-32</v>
+        <v>3.760663503879259e-18</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.875832007169988e-32</v>
+        <v>3.649624873517989e-18</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.805070299744266e-32</v>
+        <v>3.982221972909565e-18</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.850012284596675e-32</v>
+        <v>4.785298853213753e-18</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.760380426605558e-32</v>
+        <v>4.336583989353005e-18</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>1.679022776136752e-32</v>
+        <v>8.05835143303029e-18</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.580466100962082e-32</v>
+        <v>1.168225704609974e-17</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.536929154293322e-32</v>
+        <v>2.397204181749813e-17</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>1.404211742468571e-32</v>
+        <v>5.112732122804858e-17</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>1.333270705964692e-32</v>
+        <v>4.291526797220721e-17</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>9.527456227999161e-33</v>
+        <v>1.988213784815864e-17</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>8.199720139236466e-33</v>
+        <v>8.869240804364457e-18</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>6.465204670098511e-33</v>
+        <v>3.756055621026823e-18</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>4.374533818431815e-33</v>
+        <v>3.330463868104112e-18</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>3.709115732397624e-33</v>
+        <v>2.016995388093861e-18</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>2.979871085462673e-33</v>
+        <v>1.499068119761993e-18</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>2.724993216421162e-33</v>
+        <v>8.833613592521115e-19</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.727297449434046e-33</v>
+        <v>9.300316685850685e-19</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>2.626291082131474e-33</v>
+        <v>1.693924854288312e-18</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>2.378628576397483e-33</v>
+        <v>8.225504205667376e-19</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>2.296765765154313e-33</v>
+        <v>3.119441413815923e-19</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>2.250085328641398e-33</v>
+        <v>2.300748930513128e-19</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>2.422410669737823e-33</v>
+        <v>1.519916198803144e-19</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>2.528595122168504e-33</v>
+        <v>1.394351452656334e-19</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>2.556737173112371e-33</v>
+        <v>1.831563224681438e-19</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>2.463616147441477e-33</v>
+        <v>3.894800623710723e-19</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>2.323148401843033e-33</v>
+        <v>4.117647536794506e-19</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>2.05351872028766e-33</v>
+        <v>4.023206599488416e-19</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.646179672745342e-33</v>
+        <v>3.831039443933342e-19</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>8.958534294978518e-34</v>
+        <v>3.133446533805979e-19</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>7.044053223381104e-34</v>
+        <v>2.347721990759511e-19</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>5.280595060416838e-34</v>
+        <v>1.501262009472579e-19</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>3.562103735528104e-34</v>
+        <v>1.165588415834621e-19</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>3.090290602131073e-34</v>
+        <v>1.059542801396375e-19</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.886004714135983e-34</v>
+        <v>1.00635391202484e-19</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>2.823530881932741e-34</v>
+        <v>9.135503424355042e-20</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>2.608993205409355e-34</v>
+        <v>7.817681067250103e-20</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.555104141562227e-34</v>
+        <v>6.579557212286267e-20</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>2.551895103285789e-34</v>
+        <v>6.769163939200347e-20</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>2.532780948442472e-34</v>
+        <v>7.531935985890653e-20</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>2.420648536117186e-34</v>
+        <v>9.77635760590905e-20</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.311993050665024e-34</v>
+        <v>1.09349064177995e-19</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>2.250174717942502e-34</v>
+        <v>1.238481439184673e-19</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.967261815261079e-34</v>
+        <v>1.395330444783217e-19</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.966302470726076e-34</v>
+        <v>1.411810366471866e-19</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>1.958725847250077e-34</v>
+        <v>1.574819824987032e-19</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>1.870307467383325e-34</v>
+        <v>1.646023943502285e-19</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>1.540410203174224e-34</v>
+        <v>1.570548272047041e-19</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>1.248817450497778e-34</v>
+        <v>1.583959325193377e-19</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>1.111124221330534e-34</v>
+        <v>1.489566058247544e-19</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.062411025916032e-34</v>
+        <v>1.41143737694734e-19</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>1.247395797896778e-34</v>
+        <v>1.319101805790066e-19</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>2.01591649899963e-34</v>
+        <v>1.274070385824316e-19</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.383907720039542e-34</v>
+        <v>1.157748053400897e-19</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>2.42825433288286e-34</v>
+        <v>1.094872170612795e-19</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>2.372303724230247e-34</v>
+        <v>7.637701670004411e-20</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>2.349392620565941e-34</v>
+        <v>6.487221993264533e-20</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>2.334139105156886e-34</v>
+        <v>5.067934342280842e-20</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>2.0743021012167e-34</v>
+        <v>3.344713735861598e-20</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.842523791814213e-34</v>
+        <v>2.799766257903179e-20</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>9.969823213287451e-35</v>
+        <v>2.227138762589797e-20</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>4.927703030594285e-35</v>
+        <v>2.020578393253217e-20</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>3.386088906343953e-35</v>
+        <v>2.023018297945588e-20</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>2.961096757144434e-35</v>
+        <v>1.941944789813668e-20</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>3.643473341490952e-35</v>
+        <v>1.734679577354318e-20</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>3.872268377320212e-35</v>
+        <v>1.665546801906208e-20</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>5.331190796453844e-35</v>
+        <v>1.618682891978226e-20</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>6.19337322273227e-35</v>
+        <v>1.733323938556876e-20</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>6.0085636207097e-35</v>
+        <v>1.794415236524108e-20</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>5.400089819660641e-35</v>
+        <v>1.802327227319957e-20</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>4.550854212999983e-35</v>
+        <v>1.726492486315324e-20</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>4.5029079874441e-35</v>
+        <v>1.613784353050141e-20</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>3.774947909789369e-35</v>
+        <v>1.409658067396397e-20</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>2.993712200880809e-35</v>
+        <v>1.118316448970754e-20</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>2.550266713752848e-35</v>
+        <v>5.936053447161656e-21</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>2.413601341585576e-35</v>
+        <v>4.600805813691971e-21</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>2.239554281574019e-35</v>
+        <v>3.427024772073152e-21</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>2.15425580647224e-35</v>
+        <v>2.259754159038189e-21</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>1.948491311405379e-35</v>
+        <v>1.926916033112679e-21</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>2.019402207309924e-35</v>
+        <v>1.777347439690825e-21</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>2.185106497693847e-35</v>
+        <v>1.733953110001019e-21</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>2.326562702466136e-35</v>
+        <v>1.595844220985668e-21</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>2.451847155489456e-35</v>
+        <v>1.566696879754682e-21</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>2.658814928508162e-35</v>
+        <v>1.557776710802339e-21</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>2.79630154268193e-35</v>
+        <v>1.543869388255437e-21</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>2.665294774147061e-35</v>
+        <v>1.465500689681977e-21</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>2.526711959421403e-35</v>
+        <v>1.387863040748429e-21</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>2.112468806312601e-35</v>
+        <v>1.344663772707147e-21</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>2.069840130180215e-35</v>
+        <v>1.180670852283631e-21</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>1.738410774299321e-35</v>
+        <v>1.170205831018429e-21</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.636912932132621e-35</v>
+        <v>1.167840486733538e-21</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>1.588214913399932e-35</v>
+        <v>1.10395293431362e-21</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>1.929321521690948e-35</v>
+        <v>8.994491042804285e-22</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>1.651358851559858e-35</v>
+        <v>7.246843311809135e-22</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>1.648169095280769e-35</v>
+        <v>6.326513062585702e-22</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>1.455653935123857e-35</v>
+        <v>6.02938381611445e-22</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>1.327828668891842e-35</v>
+        <v>7.006497815593039e-22</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>1.227395797285389e-35</v>
+        <v>1.1283766553655e-21</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>1.120498888111021e-35</v>
+        <v>1.314382568204509e-21</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.008179956994906e-35</v>
+        <v>1.331480754414617e-21</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>9.991740627012255e-36</v>
+        <v>1.28826448154823e-21</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>4.788455500984558e-36</v>
+        <v>1.270932218255342e-21</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.842735711593077e-36</v>
+        <v>1.261563819620288e-21</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.098800943336195e-36</v>
+        <v>1.103764124531766e-21</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>1.541826836085003e-36</v>
+        <v>9.777797118695109e-22</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>9.520705361154655e-37</v>
+        <v>5.150126080536669e-22</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>7.520114019123761e-37</v>
+        <v>2.426903141795062e-22</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>6.099896784601951e-37</v>
+        <v>1.592660357449651e-22</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>6.02410144317548e-37</v>
+        <v>1.328552709367887e-22</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>7.319084749002143e-37</v>
+        <v>1.600594590866042e-22</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>1.182130133903873e-36</v>
+        <v>1.678127608667595e-22</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>1.145956064074903e-36</v>
+        <v>2.270737200180899e-22</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>8.626829632016583e-37</v>
+        <v>2.59986964875953e-22</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>7.2984222183859e-37</v>
+        <v>2.475730583406663e-22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.20028797566471e-22</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.829057382714434e-22</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.813827961744159e-22</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.503519786336045e-22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.176679050853352e-22</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>9.938492095011969e-23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9.389999313783749e-23</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>8.575667385854652e-23</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>8.202164366955554e-23</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>7.38849824700133e-23</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>7.536991511133547e-23</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.069519982096183e-23</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>8.479486610472262e-23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>8.801591458774279e-23</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>9.443696259722471e-23</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>9.82672974079505e-23</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>9.362363093495596e-23</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>8.75617531809855e-23</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>7.250859912137123e-23</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>7.099335228543542e-23</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.915177131188022e-23</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.550677443957099e-23</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.382530540062587e-23</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6.475929483391973e-23</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.518425866303716e-23</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.439987972141368e-23</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>4.79758157273849e-23</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.355607466213889e-23</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.004994493644085e-23</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.629394365118434e-23</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.25609163797021e-23</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.222845505512141e-23</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.527104652578348e-23</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.779817593637357e-24</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.422944226173022e-24</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.804202884356524e-24</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.96192151780175e-24</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.323824942615976e-24</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.854722044052059e-24</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.795836707902407e-24</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.179213073495248e-24</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.418281691459243e-24</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>3.234906663008754e-24</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.37362767884607e-24</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.987429804992871e-24</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.343712978771252e-15</v>
+        <v>5.117500102170374e-31</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>2.15313283141512e-15</v>
+        <v>4.981601761869435e-31</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>2.930970453481686e-15</v>
+        <v>5.644687095576018e-31</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>2.75856409787271e-15</v>
+        <v>7.197255965813502e-31</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>3.288283592103429e-15</v>
+        <v>8.59337983636717e-31</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>3.094919103975963e-15</v>
+        <v>1.537360353460967e-30</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2.774993607805676e-15</v>
+        <v>2.273524401897764e-30</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>2.849268169499905e-15</v>
+        <v>5.71551302050564e-30</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1.996818582115827e-15</v>
+        <v>8.5869534839846e-30</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>2.34174337082151e-15</v>
+        <v>8.288218083306069e-30</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>2.42375206642493e-15</v>
+        <v>5.957477299599022e-30</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>1.441603678031085e-15</v>
+        <v>2.756023293851227e-30</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>5.956631556056883e-17</v>
+        <v>2.067975354268116e-30</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>3.387075514366226e-17</v>
+        <v>2.548593641662794e-30</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>3.594346089187197e-17</v>
+        <v>1.107895784228428e-30</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>2.950354014803594e-17</v>
+        <v>7.567819192026002e-31</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>3.00785879664349e-17</v>
+        <v>4.135930217181741e-31</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>3.755778251020539e-17</v>
+        <v>1.959666937573506e-31</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>3.056275416107218e-17</v>
+        <v>1.459063651993297e-31</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>3.586247225947488e-17</v>
+        <v>1.398934820329089e-31</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>6.371779025943309e-17</v>
+        <v>1.608339100946202e-31</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>7.320351504253719e-17</v>
+        <v>1.885086679145768e-31</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>9.924435816777384e-17</v>
+        <v>1.716761800129923e-31</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.020515296520375e-16</v>
+        <v>3.279448180216732e-31</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>9.316116516654225e-17</v>
+        <v>4.769426814657718e-31</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>9.947488441818158e-17</v>
+        <v>9.728372766876607e-31</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>9.433460216864342e-17</v>
+        <v>2.143807842704057e-30</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>9.252355067871716e-17</v>
+        <v>1.851248830399585e-30</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>8.923252933048994e-17</v>
+        <v>8.624938402993569e-31</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>8.795271214470631e-17</v>
+        <v>3.986842591644717e-31</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>7.994434075843536e-17</v>
+        <v>1.749263640317624e-31</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>7.30754647128327e-17</v>
+        <v>1.563312517649924e-31</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>8.020937540577345e-17</v>
+        <v>9.351289911819743e-32</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>6.923196062186218e-17</v>
+        <v>7.637622870415457e-32</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>6.443008047983923e-17</v>
+        <v>4.278467526485054e-32</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>4.19851787972915e-17</v>
+        <v>4.830003367419324e-32</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>4.05140554394637e-17</v>
+        <v>8.970646558050464e-32</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>3.713143776895738e-17</v>
+        <v>4.554897463849487e-32</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>3.908985334510478e-17</v>
+        <v>1.781635020860181e-32</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>5.738431683489262e-17</v>
+        <v>1.398361511091401e-32</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>5.725162777592945e-17</v>
+        <v>9.515398030599378e-33</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>5.109093700648685e-17</v>
+        <v>8.835554536244406e-33</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>4.282490040023534e-17</v>
+        <v>1.244555756318144e-32</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>4.154988873730367e-17</v>
+        <v>2.619298683833389e-32</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>3.73496095801006e-17</v>
+        <v>2.800144876836563e-32</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.793572291178365e-17</v>
+        <v>2.808808947139461e-32</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.732149611401612e-17</v>
+        <v>2.687740576270074e-32</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1.876872628095474e-17</v>
+        <v>2.209129684591022e-32</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>2.317263479948317e-17</v>
+        <v>1.721178730934789e-32</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>2.704185871203462e-17</v>
+        <v>1.135658862435406e-32</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>4.835452235710588e-17</v>
+        <v>9.141563665463856e-33</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>6.974596095417234e-17</v>
+        <v>8.256391937607208e-33</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.769081131357148e-16</v>
+        <v>7.896718125447684e-33</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>2.631591194189735e-16</v>
+        <v>7.227226817552061e-33</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>2.466254566295331e-16</v>
+        <v>6.316385883416582e-33</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.745862768507824e-16</v>
+        <v>5.573459587712774e-33</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>7.948107053894012e-17</v>
+        <v>5.96413656883475e-33</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>5.89152611317496e-17</v>
+        <v>6.972261746051823e-33</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>7.228307795954134e-17</v>
+        <v>9.123492311516316e-33</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>3.07914067706398e-17</v>
+        <v>1.049078025633889e-32</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>2.12398218775588e-17</v>
+        <v>1.211550844263744e-32</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.130455116479663e-17</v>
+        <v>1.382220659756736e-32</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>5.052730778007041e-18</v>
+        <v>1.410825074830971e-32</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>3.760663503879259e-18</v>
+        <v>1.600896115078028e-32</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>3.649624873517989e-18</v>
+        <v>1.708604754538383e-32</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>3.982221972909565e-18</v>
+        <v>1.645334404305822e-32</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>4.785298853213753e-18</v>
+        <v>1.6810213251906e-32</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>4.336583989353005e-18</v>
+        <v>1.601446574127653e-32</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>8.05835143303029e-18</v>
+        <v>1.530628424498247e-32</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.168225704609974e-17</v>
+        <v>1.439066263029698e-32</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>2.397204181749813e-17</v>
+        <v>1.396433735647421e-32</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>5.112732122804858e-17</v>
+        <v>1.275775893800237e-32</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>4.291526797220721e-17</v>
+        <v>1.214621797224337e-32</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>1.988213784815864e-17</v>
+        <v>8.683495651733612e-33</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>8.869240804364457e-18</v>
+        <v>7.476717750549807e-33</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>3.756055621026823e-18</v>
+        <v>5.89939926609739e-33</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>3.330463868104112e-18</v>
+        <v>3.990269084359515e-33</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>2.016995388093861e-18</v>
+        <v>3.388106806918503e-33</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.499068119761993e-18</v>
+        <v>2.732505870534984e-33</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>8.833613592521115e-19</v>
+        <v>2.495368899562636e-33</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>9.300316685850685e-19</v>
+        <v>2.500798248819875e-33</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.693924854288312e-18</v>
+        <v>2.413475117450974e-33</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>8.225504205667376e-19</v>
+        <v>2.177701342829558e-33</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>3.119441413815923e-19</v>
+        <v>2.10911073564065e-33</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>2.300748930513128e-19</v>
+        <v>2.067483884370739e-33</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.519916198803144e-19</v>
+        <v>2.208630677901107e-33</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.394351452656334e-19</v>
+        <v>2.312710242537771e-33</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.831563224681438e-19</v>
+        <v>2.336560537139712e-33</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>3.894800623710723e-19</v>
+        <v>2.259456993797104e-33</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>4.117647536794506e-19</v>
+        <v>2.118748620380675e-33</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>4.023206599488416e-19</v>
+        <v>1.872790079877406e-33</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>3.831039443933342e-19</v>
+        <v>1.508944493804696e-33</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>3.133446533805979e-19</v>
+        <v>8.225322340312643e-34</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>2.347721990759511e-19</v>
+        <v>6.462069347592032e-34</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.501262009472579e-19</v>
+        <v>4.903418702502317e-34</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.165588415834621e-19</v>
+        <v>3.316812734690722e-34</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.059542801396375e-19</v>
+        <v>2.886929289198069e-34</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.00635391202484e-19</v>
+        <v>2.692282724840655e-34</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>9.135503424355042e-20</v>
+        <v>2.639671613602329e-34</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>7.817681067250103e-20</v>
+        <v>2.436261720558131e-34</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>6.579557212286267e-20</v>
+        <v>2.396631131452543e-34</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>6.769163939200347e-20</v>
+        <v>2.401841851401497e-34</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>7.531935985890653e-20</v>
+        <v>2.362144077126688e-34</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>9.77635760590905e-20</v>
+        <v>2.245787582223741e-34</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.09349064177995e-19</v>
+        <v>2.12826908400685e-34</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.238481439184673e-19</v>
+        <v>2.043003935522342e-34</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.395330444783217e-19</v>
+        <v>1.867243140609552e-34</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.411810366471866e-19</v>
+        <v>1.848976101576005e-34</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.574819824987032e-19</v>
+        <v>1.86166008720839e-34</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.646023943502285e-19</v>
+        <v>1.765807383843331e-34</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.570548272047041e-19</v>
+        <v>1.453709357121451e-34</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.583959325193377e-19</v>
+        <v>1.194337134922563e-34</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.489566058247544e-19</v>
+        <v>1.05422024743422e-34</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.41143737694734e-19</v>
+        <v>1.004374154089829e-34</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.319101805790066e-19</v>
+        <v>1.189868793126999e-34</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.274070385824316e-19</v>
+        <v>1.899163332983499e-34</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.157748053400897e-19</v>
+        <v>2.207159530305863e-34</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.094872170612795e-19</v>
+        <v>2.258509408590351e-34</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>7.637701670004411e-20</v>
+        <v>2.191507418207531e-34</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>6.487221993264533e-20</v>
+        <v>2.192065027760548e-34</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>5.067934342280842e-20</v>
+        <v>2.170084254050076e-34</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>3.344713735861598e-20</v>
+        <v>1.921369857899064e-34</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.799766257903179e-20</v>
+        <v>1.716810927204356e-34</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>2.227138762589797e-20</v>
+        <v>9.322850543567598e-35</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>2.020578393253217e-20</v>
+        <v>4.63424377934545e-35</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>2.023018297945588e-20</v>
+        <v>3.227983659286912e-35</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.941944789813668e-20</v>
+        <v>2.778477339711983e-35</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.734679577354318e-20</v>
+        <v>3.434557631530528e-35</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.665546801906208e-20</v>
+        <v>3.625817687310872e-35</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.618682891978226e-20</v>
+        <v>4.944871805009743e-35</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1.733323938556876e-20</v>
+        <v>5.733152772880836e-35</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1.794415236524108e-20</v>
+        <v>5.597857737446517e-35</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.802327227319957e-20</v>
+        <v>4.995850151838437e-35</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.726492486315324e-20</v>
+        <v>4.172313904395758e-35</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.613784353050141e-20</v>
+        <v>3.474230319532544e-35</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.409658067396397e-20</v>
+        <v>2.756289305372596e-35</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1.118316448970754e-20</v>
+        <v>2.378563934687235e-35</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>5.936053447161656e-21</v>
+        <v>2.286866922939137e-35</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>4.600805813691971e-21</v>
+        <v>2.058479511134287e-35</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>3.427024772073152e-21</v>
+        <v>1.997627681917318e-35</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>2.259754159038189e-21</v>
+        <v>1.859515967028134e-35</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1.926916033112679e-21</v>
+        <v>1.893875692766856e-35</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>1.777347439690825e-21</v>
+        <v>2.042793234714603e-35</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>1.733953110001019e-21</v>
+        <v>2.158710396028838e-35</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.595844220985668e-21</v>
+        <v>2.269370498813823e-35</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.566696879754682e-21</v>
+        <v>2.447585460850053e-35</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1.557776710802339e-21</v>
+        <v>2.515032035553855e-35</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1.543869388255437e-21</v>
+        <v>2.310592210072062e-35</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.465500689681977e-21</v>
+        <v>1.947175888729079e-35</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.387863040748429e-21</v>
+        <v>1.90926961909322e-35</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.344663772707147e-21</v>
+        <v>1.60879207785805e-35</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.180670852283631e-21</v>
+        <v>1.514327957429737e-35</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.170205831018429e-21</v>
+        <v>1.471673642311314e-35</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.167840486733538e-21</v>
+        <v>1.772652547786124e-35</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.10395293431362e-21</v>
+        <v>1.526000011400606e-35</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>8.994491042804285e-22</v>
+        <v>1.51718425188709e-35</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>7.246843311809135e-22</v>
+        <v>1.345801556140095e-35</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>6.326513062585702e-22</v>
+        <v>1.228401949561621e-35</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>6.02938381611445e-22</v>
+        <v>1.138010372437064e-35</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>7.006497815593039e-22</v>
+        <v>1.025794673871634e-35</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.1283766553655e-21</v>
+        <v>9.346216877846339e-36</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1.314382568204509e-21</v>
+        <v>9.335164401493337e-36</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.331480754414617e-21</v>
+        <v>4.531340471442145e-36</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.28826448154823e-21</v>
+        <v>1.753807848643809e-36</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1.270932218255342e-21</v>
+        <v>1.021580721313356e-36</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.261563819620288e-21</v>
+        <v>1.463542193451285e-36</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.103764124531766e-21</v>
+        <v>9.047644794294239e-37</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>9.777797118695109e-22</v>
+        <v>7.058037735324037e-37</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>5.150126080536669e-22</v>
+        <v>5.646164996863327e-37</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.426903141795062e-22</v>
+        <v>5.472288279047422e-37</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1.592660357449651e-22</v>
+        <v>7.021517350596615e-37</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.328552709367887e-22</v>
+        <v>1.11981331217665e-36</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.600594590866042e-22</v>
+        <v>1.087401848077934e-36</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1.678127608667595e-22</v>
+        <v>8.15707099854552e-37</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>2.270737200180899e-22</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>2.59986964875953e-22</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>2.475730583406663e-22</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>2.20028797566471e-22</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1.829057382714434e-22</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1.813827961744159e-22</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1.503519786336045e-22</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1.176679050853352e-22</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9.938492095011969e-23</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9.389999313783749e-23</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>8.575667385854652e-23</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>8.202164366955554e-23</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>7.38849824700133e-23</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>7.536991511133547e-23</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>8.069519982096183e-23</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>8.479486610472262e-23</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>8.801591458774279e-23</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9.443696259722471e-23</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9.82672974079505e-23</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>9.362363093495596e-23</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>8.75617531809855e-23</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>7.250859912137123e-23</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>7.099335228543542e-23</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>5.915177131188022e-23</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>5.550677443957099e-23</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>5.382530540062587e-23</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>6.475929483391973e-23</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>5.518425866303716e-23</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>5.439987972141368e-23</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4.79758157273849e-23</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.355607466213889e-23</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4.004994493644085e-23</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.629394365118434e-23</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.25609163797021e-23</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.222845505512141e-23</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.527104652578348e-23</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.779817593637357e-24</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.422944226173022e-24</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.804202884356524e-24</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.96192151780175e-24</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.323824942615976e-24</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.854722044052059e-24</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.795836707902407e-24</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2.179213073495248e-24</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.418281691459243e-24</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.234906663008754e-24</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>2.37362767884607e-24</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.987429804992871e-24</v>
+        <v>6.896033894528373e-37</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.700000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>5.117500102170374e-31</v>
+        <v>2.677857924212561e-31</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>4.981601761869435e-31</v>
+        <v>3.090204398355658e-31</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>5.644687095576018e-31</v>
+        <v>4.027874507980888e-31</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>7.197255965813502e-31</v>
+        <v>5.945375630731945e-31</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>8.59337983636717e-31</v>
+        <v>7.719385388954776e-31</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.537360353460967e-30</v>
+        <v>1.41000218274098e-30</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2.273524401897764e-30</v>
+        <v>2.206247726362088e-30</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>5.71551302050564e-30</v>
+        <v>5.580200737535223e-30</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>8.5869534839846e-30</v>
+        <v>8.407148073707275e-30</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>8.288218083306069e-30</v>
+        <v>8.226480510076648e-30</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>5.957477299599022e-30</v>
+        <v>5.87960061080177e-30</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.756023293851227e-30</v>
+        <v>2.729304581581699e-30</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>2.067975354268116e-30</v>
+        <v>2.00708039944225e-30</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.548593641662794e-30</v>
+        <v>2.516528581227326e-30</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.107895784228428e-30</v>
+        <v>1.057480438978807e-30</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>7.567819192026002e-31</v>
+        <v>7.231728914851832e-31</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>4.135930217181741e-31</v>
+        <v>3.577861707665661e-31</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.959666937573506e-31</v>
+        <v>1.584821149461182e-31</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.459063651993297e-31</v>
+        <v>1.172073926656065e-31</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.398934820329089e-31</v>
+        <v>1.062654320275066e-31</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.608339100946202e-31</v>
+        <v>1.367106934238153e-31</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1.885086679145768e-31</v>
+        <v>1.788268112519336e-31</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.716761800129923e-31</v>
+        <v>1.445453576779238e-31</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>3.279448180216732e-31</v>
+        <v>2.844566876205189e-31</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>4.769426814657718e-31</v>
+        <v>4.224542247158019e-31</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>9.728372766876607e-31</v>
+        <v>9.637975185390842e-31</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>2.143807842704057e-30</v>
+        <v>2.131001655528959e-30</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>1.851248830399585e-30</v>
+        <v>1.82759261171205e-30</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>8.624938402993569e-31</v>
+        <v>8.57261833871503e-31</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>3.986842591644717e-31</v>
+        <v>3.846815990806236e-31</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>1.749263640317624e-31</v>
+        <v>1.674073909063535e-31</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1.563312517649924e-31</v>
+        <v>1.487607123687169e-31</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>9.351289911819743e-32</v>
+        <v>9.613867979218618e-32</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>7.637622870415457e-32</v>
+        <v>5.859725179418803e-32</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>4.278467526485054e-32</v>
+        <v>4.198009524049768e-32</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>4.830003367419324e-32</v>
+        <v>4.674255919728366e-32</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>8.970646558050464e-32</v>
+        <v>8.821245570509406e-32</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>4.554897463849487e-32</v>
+        <v>4.476711225884098e-32</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.781635020860181e-32</v>
+        <v>1.633434659874091e-32</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.398361511091401e-32</v>
+        <v>1.22585838708994e-32</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>9.515398030599378e-33</v>
+        <v>8.845726116295786e-33</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>8.835554536244406e-33</v>
+        <v>8.077407844103287e-33</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.244555756318144e-32</v>
+        <v>1.220840706893291e-32</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>2.619298683833389e-32</v>
+        <v>2.582374502881501e-32</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>2.800144876836563e-32</v>
+        <v>2.761039901123744e-32</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>2.808808947139461e-32</v>
+        <v>2.808490943216738e-32</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>2.687740576270074e-32</v>
+        <v>2.676357062800186e-32</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>2.209129684591022e-32</v>
+        <v>2.179280955443571e-32</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1.721178730934789e-32</v>
+        <v>1.69388134595511e-32</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>1.135658862435406e-32</v>
+        <v>1.141726853156421e-32</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>9.141563665463856e-33</v>
+        <v>9.056873885133504e-33</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>8.256391937607208e-33</v>
+        <v>8.348027842405226e-33</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>7.896718125447684e-33</v>
+        <v>7.769671185665382e-33</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>7.227226817552061e-33</v>
+        <v>6.930463384313138e-33</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>6.316385883416582e-33</v>
+        <v>6.078939724317818e-33</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.573459587712774e-33</v>
+        <v>5.492630973915464e-33</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>5.96413656883475e-33</v>
+        <v>5.880399697853583e-33</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>6.972261746051823e-33</v>
+        <v>6.974355163063888e-33</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>9.123492311516316e-33</v>
+        <v>9.171011888432469e-33</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.049078025633889e-32</v>
+        <v>1.053423513945254e-32</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.211550844263744e-32</v>
+        <v>1.21466200575874e-32</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.382220659756736e-32</v>
+        <v>1.388609531681355e-32</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1.410825074830971e-32</v>
+        <v>1.413219991519806e-32</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.600896115078028e-32</v>
+        <v>1.602452056062258e-32</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.708604754538383e-32</v>
+        <v>1.717660161110616e-32</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.645334404305822e-32</v>
+        <v>1.65043032176791e-32</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.6810213251906e-32</v>
+        <v>1.699812625927653e-32</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.601446574127653e-32</v>
+        <v>1.605432276186123e-32</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.530628424498247e-32</v>
+        <v>1.541089283179963e-32</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.439066263029698e-32</v>
+        <v>1.4457097053653e-32</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.396433735647421e-32</v>
+        <v>1.398957192673578e-32</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.275775893800237e-32</v>
+        <v>1.288481387209412e-32</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.214621797224337e-32</v>
+        <v>1.219263621640152e-32</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>8.683495651733612e-33</v>
+        <v>8.75746865138231e-33</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>7.476717750549807e-33</v>
+        <v>7.479143646494103e-33</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>5.89939926609739e-33</v>
+        <v>5.918648243287833e-33</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>3.990269084359515e-33</v>
+        <v>4.014982108363499e-33</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>3.388106806918503e-33</v>
+        <v>3.405204891330796e-33</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>2.732505870534984e-33</v>
+        <v>2.7386512387149e-33</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>2.495368899562636e-33</v>
+        <v>2.506308685283208e-33</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>2.500798248819875e-33</v>
+        <v>2.507120969289085e-33</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>2.413475117450974e-33</v>
+        <v>2.421314883367213e-33</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>2.177701342829558e-33</v>
+        <v>2.182519128351851e-33</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>2.10911073564065e-33</v>
+        <v>2.111991438681132e-33</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>2.067483884370739e-33</v>
+        <v>2.068990196849008e-33</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>2.208630677901107e-33</v>
+        <v>2.217309867429123e-33</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>2.312710242537771e-33</v>
+        <v>2.312938682390087e-33</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>2.336560537139712e-33</v>
+        <v>2.335262537630774e-33</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>2.259456993797104e-33</v>
+        <v>2.260349579698103e-33</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>2.118748620380675e-33</v>
+        <v>2.125395618999897e-33</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.872790079877406e-33</v>
+        <v>1.871505873193223e-33</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>1.508944493804696e-33</v>
+        <v>1.516765716407001e-33</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>8.225322340312643e-34</v>
+        <v>8.277404740798758e-34</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>6.462069347592032e-34</v>
+        <v>6.529959330942137e-34</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>4.903418702502317e-34</v>
+        <v>4.928862305048717e-34</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>3.316812734690722e-34</v>
+        <v>3.335894813658757e-34</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>2.886929289198069e-34</v>
+        <v>2.891397469532723e-34</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.692282724840655e-34</v>
+        <v>2.693187582649739e-34</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>2.639671613602329e-34</v>
+        <v>2.624308022767652e-34</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>2.436261720558131e-34</v>
+        <v>2.41998107685669e-34</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>2.396631131452543e-34</v>
+        <v>2.398362678018277e-34</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>2.401841851401497e-34</v>
+        <v>2.384472095837304e-34</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>2.362144077126688e-34</v>
+        <v>2.365391114708305e-34</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>2.245787582223741e-34</v>
+        <v>2.266411434038619e-34</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>2.12826908400685e-34</v>
+        <v>2.118755672641331e-34</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>2.043003935522342e-34</v>
+        <v>2.039349475773759e-34</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.867243140609552e-34</v>
+        <v>1.857488304731191e-34</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.848976101576005e-34</v>
+        <v>1.832895415305195e-34</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.86166008720839e-34</v>
+        <v>1.859247861857723e-34</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.765807383843331e-34</v>
+        <v>1.739692244908079e-34</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.453709357121451e-34</v>
+        <v>1.440953579155755e-34</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.194337134922563e-34</v>
+        <v>1.199507469829508e-34</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.05422024743422e-34</v>
+        <v>1.054278578276583e-34</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.004374154089829e-34</v>
+        <v>1.017873028128848e-34</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.189868793126999e-34</v>
+        <v>1.185536319720172e-34</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.899163332983499e-34</v>
+        <v>1.890482029343082e-34</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>2.207159530305863e-34</v>
+        <v>2.209098411461298e-34</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>2.258509408590351e-34</v>
+        <v>2.252412297687784e-34</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.191507418207531e-34</v>
+        <v>2.188650679443789e-34</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>2.192065027760548e-34</v>
+        <v>2.190129660901405e-34</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2.170084254050076e-34</v>
+        <v>2.178196100040922e-34</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>1.921369857899064e-34</v>
+        <v>1.932078350526758e-34</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.716810927204356e-34</v>
+        <v>1.728007426286194e-34</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>9.322850543567598e-35</v>
+        <v>9.340566841824867e-35</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>4.63424377934545e-35</v>
+        <v>4.673246523669737e-35</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>3.227983659286912e-35</v>
+        <v>3.229631677691388e-35</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>2.778477339711983e-35</v>
+        <v>2.801216907414202e-35</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>3.434557631530528e-35</v>
+        <v>3.435301599140852e-35</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>3.625817687310872e-35</v>
+        <v>3.617937104939643e-35</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>4.944871805009743e-35</v>
+        <v>4.920337502759814e-35</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>5.733152772880836e-35</v>
+        <v>5.827479032888079e-35</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>5.597857737446517e-35</v>
+        <v>5.60612033043495e-35</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>4.995850151838437e-35</v>
+        <v>5.001893989589297e-35</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>4.172313904395758e-35</v>
+        <v>4.167370477257467e-35</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>3.474230319532544e-35</v>
+        <v>3.460255682243354e-35</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>2.756289305372596e-35</v>
+        <v>2.796299675795365e-35</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>2.378563934687235e-35</v>
+        <v>2.358503852278939e-35</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>2.286866922939137e-35</v>
+        <v>2.241789489668765e-35</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>2.058479511134287e-35</v>
+        <v>1.89253983161618e-35</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1.997627681917318e-35</v>
+        <v>1.984704326747889e-35</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>1.859515967028134e-35</v>
+        <v>1.865323004941117e-35</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>1.893875692766856e-35</v>
+        <v>1.825821123699118e-35</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>2.042793234714603e-35</v>
+        <v>2.022807843590386e-35</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>2.158710396028838e-35</v>
+        <v>2.148829774872741e-35</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>2.269370498813823e-35</v>
+        <v>2.259610306073294e-35</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>2.447585460850053e-35</v>
+        <v>2.442157231773868e-35</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>2.515032035553855e-35</v>
+        <v>2.51930596640295e-35</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>2.310592210072062e-35</v>
+        <v>2.304331698258191e-35</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.947175888729079e-35</v>
+        <v>1.953345490810994e-35</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.90926961909322e-35</v>
+        <v>1.917266613634661e-35</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.60879207785805e-35</v>
+        <v>1.619936290335079e-35</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.514327957429737e-35</v>
+        <v>1.518290538757626e-35</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.471673642311314e-35</v>
+        <v>1.47752821732764e-35</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.772652547786124e-35</v>
+        <v>1.782312056373611e-35</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.526000011400606e-35</v>
+        <v>1.529550605709865e-35</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>1.51718425188709e-35</v>
+        <v>1.525258138048271e-35</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.345801556140095e-35</v>
+        <v>1.351379283897375e-35</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.228401949561621e-35</v>
+        <v>1.233787429270006e-35</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.138010372437064e-35</v>
+        <v>1.138860265663199e-35</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.025794673871634e-35</v>
+        <v>1.033012497468915e-35</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>9.346216877846339e-36</v>
+        <v>9.388338562065233e-36</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>9.335164401493337e-36</v>
+        <v>9.393916606859373e-36</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>4.531340471442145e-36</v>
+        <v>4.55723664103422e-36</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.753807848643809e-36</v>
+        <v>1.805924729633755e-36</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1.021580721313356e-36</v>
+        <v>1.043679837833816e-36</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.463542193451285e-36</v>
+        <v>1.488611975867417e-36</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>9.047644794294239e-37</v>
+        <v>9.337852725241065e-37</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>7.058037735324037e-37</v>
+        <v>7.331196837327635e-37</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>5.646164996863327e-37</v>
+        <v>5.845287745071911e-37</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>5.472288279047422e-37</v>
+        <v>5.00874670000646e-37</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>7.021517350596615e-37</v>
+        <v>7.076075585007331e-37</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>1.11981331217665e-36</v>
+        <v>1.112402601540222e-36</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>1.087401848077934e-36</v>
+        <v>1.0981758239283e-36</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>8.15707099854552e-37</v>
+        <v>8.293032149810895e-37</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>6.896033894528373e-37</v>
+        <v>7.036224250744323e-37</v>
       </c>
     </row>
   </sheetData>
